--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Polymyositis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Polymyositis_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Progressive muscle weakness over weeks to months</t>
+          <t>Symmetrical proximal muscle weakness</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a hallmark symptom of Polymyositis, as it typically presents with gradual onset of muscle weakness, particularly affecting proximal muscles.</t>
+          <t>This is a hallmark symptom of Polymyositis, often presenting as difficulty climbing stairs or lifting objects.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of skin rashes</t>
+          <t>Acute onset of muscle weakness</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The presence of skin rashes is more characteristic of Dermatomyositis, which can be confused with Polymyositis; their absence suggests Polymyositis is less likely.</t>
+          <t>An acute onset of muscle weakness is less typical for Polymyositis and may suggest other conditions such as Guillain-Barré syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty climbing stairs or lifting objects</t>
+          <t>Gradual onset of muscle weakness over weeks to months</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>These activities require proximal muscle strength, which is often compromised in Polymyositis, making this finding supportive of the diagnosis.</t>
+          <t>Polymyositis typically presents with a gradual onset of muscle weakness, distinguishing it from other conditions with more acute presentations.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rapid onset of symptoms</t>
+          <t>Predominantly distal muscle weakness</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Polymyositis typically has a gradual onset; a rapid onset of muscle weakness may suggest other conditions, making Polymyositis less likely.</t>
+          <t>Polymyositis primarily affects proximal muscles, so distal weakness suggests an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Associated symptoms of fatigue and malaise</t>
+          <t>Muscle pain and tenderness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fatigue is commonly reported in patients with Polymyositis, supporting the diagnosis as it reflects systemic involvement.</t>
+          <t>While not as common as weakness, muscle pain and tenderness can accompany Polymyositis and support the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of autoimmune diseases</t>
+          <t>Presence of skin rash</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Polymyositis is often associated with other autoimmune conditions; a lack of such history may indicate a lower likelihood of Polymyositis.</t>
+          <t>A skin rash is more indicative of Dermatomyositis, a related but distinct condition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Muscle pain or tenderness</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not all patients experience pain, muscle tenderness can be present in Polymyositis, adding to the likelihood of the diagnosis.</t>
+          <t>Difficulty swallowing can occur in Polymyositis due to involvement of the esophageal muscles.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal muscle strength on examination</t>
+          <t>No improvement with corticosteroids</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>If muscle strength is normal, it strongly argues against Polymyositis, as muscle weakness is a defining feature of the condition.</t>
+          <t>Polymyositis typically responds to corticosteroids, so lack of improvement may suggest another diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Age of onset typically between 30 and 60 years</t>
+          <t>Fatigue</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Polymyositis most commonly affects adults in this age range, making it a relevant demographic factor in supporting the diagnosis.</t>
+          <t>Generalized fatigue is often reported in Polymyositis, correlating with muscle inflammation and weakness.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Presence of other neurological symptoms</t>
+          <t>Normal muscle strength</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Neurological symptoms not typical of Polymyositis may suggest an alternative diagnosis, reducing the likelihood of Polymyositis.</t>
+          <t>Normal muscle strength is inconsistent with Polymyositis, which is characterized by muscle weakness.</t>
         </is>
       </c>
     </row>
@@ -618,105 +618,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with polymyositis often have a history of other autoimmune conditions, which supports the diagnosis.</t>
+          <t>Polymyositis is often associated with other autoimmune conditions, so a history of such diseases increases the likelihood of polymyositis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of muscle-related symptoms</t>
+          <t>History of neurological disorders</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of muscle weakness or pain suggests that polymyositis is less likely.</t>
+          <t>Neurological disorders can cause muscle weakness but are not related to polymyositis, suggesting an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of dermatomyositis</t>
+          <t>Use of immunosuppressive medications</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dermatomyositis is closely related to polymyositis, and a past diagnosis can indicate a higher likelihood of polymyositis.</t>
+          <t>Patients with polymyositis are often treated with immunosuppressive drugs, so a history of these medications supports the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous autoimmune diagnoses</t>
+          <t>Long-term use of statins</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of any autoimmune conditions in the past decreases the likelihood of polymyositis.</t>
+          <t>Statins can cause muscle pain and weakness, which might mimic polymyositis but are not indicative of the disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of immunosuppressive medications</t>
+          <t>Previous diagnosis of interstitial lung disease</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with polymyositis may have been treated with immunosuppressive drugs, indicating an autoimmune process.</t>
+          <t>Interstitial lung disease can be associated with polymyositis, making its presence a supporting factor.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No use of medications for muscle symptoms</t>
+          <t>History of fibromyalgia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>If the patient has not used any medications for muscle-related issues, it suggests a lower likelihood of polymyositis.</t>
+          <t>Fibromyalgia can cause widespread pain and fatigue, which might be confused with polymyositis but is a distinct condition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of muscle weakness or pain</t>
+          <t>History of muscle weakness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A documented history of muscle weakness or pain is a common symptom in patients with polymyositis.</t>
+          <t>Chronic muscle weakness is a hallmark of polymyositis, so a history of this symptom supports the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>Previous diagnosis of chronic fatigue syndrome</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of autoimmune diseases in the family history reduces the risk of developing polymyositis.</t>
+          <t>Chronic fatigue syndrome can cause muscle weakness and fatigue, but it is not related to polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of autoimmune diseases</t>
+          <t>Previous episodes of elevated muscle enzymes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases can increase the likelihood of developing polymyositis.</t>
+          <t>Elevated muscle enzymes such as CK (creatine kinase) are indicative of muscle inflammation, which is common in polymyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Previous surgical history unrelated to muscle or autoimmune issues</t>
+          <t>History of psychiatric disorders</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A surgical history that does not involve muscle or autoimmune conditions suggests a lower likelihood of polymyositis.</t>
+          <t>Psychiatric disorders can lead to perceived muscle weakness and fatigue, but they are not related to polymyositis.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polymyositis has a genetic component, and a family history of autoimmune diseases increases the likelihood of developing it.</t>
+          <t>A family history of autoimmune diseases can increase the likelihood of developing Polymyositis due to shared genetic predispositions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Active participation in regular physical activity</t>
+          <t>No family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular physical activity is generally protective against muscle weakness and may indicate that polymyositis is less likely.</t>
+          <t>The absence of a family history of autoimmune diseases reduces the likelihood of Polymyositis, as genetic predisposition plays a role.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to certain toxins</t>
+          <t>Occupation involving exposure to certain environmental toxins</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupations that involve exposure to environmental toxins have been associated with a higher incidence of polymyositis.</t>
+          <t>Exposure to specific environmental toxins has been associated with an increased risk of developing autoimmune conditions like Polymyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>Young age</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of autoimmune diseases in the family reduces the likelihood of developing polymyositis.</t>
+          <t>Polymyositis is less common in younger individuals, making this age group less likely to have the condition.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of other autoimmune conditions</t>
+          <t>History of viral infections</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with a history of other autoimmune diseases are at a higher risk for developing polymyositis.</t>
+          <t>Certain viral infections have been implicated in triggering autoimmune responses, which can lead to conditions like Polymyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of muscle-related symptoms</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of prior muscle weakness or related symptoms suggests a lower probability of polymyositis.</t>
+          <t>Polymyositis is less common in males, so being male is a factor against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A sedentary lifestyle may contribute to muscle weakness and is often seen in patients with polymyositis.</t>
+          <t>Polymyositis is more common in females, suggesting a gender-related predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Healthy lifestyle choices (e.g., non-smoker, balanced diet)</t>
+          <t>No history of viral infections</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Engaging in healthy lifestyle choices can reduce the risk of developing autoimmune conditions, including polymyositis.</t>
+          <t>The absence of viral infections that could trigger autoimmune responses makes Polymyositis less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Age of onset typically between 30-60 years</t>
+          <t>Middle-aged adult</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Polymyositis commonly presents in adults aged 30-60, making age a relevant factor in diagnosis.</t>
+          <t>Polymyositis most commonly affects individuals in their middle age, making this demographic factor supportive of the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Younger age (under 30 years)</t>
+          <t>Occupation with no exposure to environmental toxins</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Polymyositis is less common in individuals under 30, making it less likely in younger patients.</t>
+          <t>Lack of exposure to environmental toxins associated with autoimmune diseases reduces the likelihood of Polymyositis.</t>
         </is>
       </c>
     </row>
@@ -920,105 +920,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness is a hallmark of Polymyositis, often presenting as difficulty in climbing stairs or lifting objects.</t>
+          <t>Proximal muscle weakness is a hallmark of Polymyositis, often affecting muscles closest to the trunk such as the shoulders and hips.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal muscle strength in distal muscles</t>
+          <t>Normal muscle strength</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal strength in distal muscles suggests that the muscle involvement is not widespread, which is atypical for Polymyositis.</t>
+          <t>Normal muscle strength is unlikely in Polymyositis, where muscle weakness is a primary symptom.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Muscle tenderness on examination</t>
+          <t>Muscle tenderness</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle tenderness is frequently observed in Polymyositis patients, indicating inflammation of the muscle tissue.</t>
+          <t>Muscle tenderness is commonly observed in Polymyositis due to inflammation of the muscle fibers.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of muscle atrophy</t>
+          <t>Asymmetrical muscle weakness</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of muscle atrophy can indicate that muscle degeneration is not occurring, which is often seen in Polymyositis.</t>
+          <t>Asymmetrical muscle weakness is more suggestive of other neuromuscular disorders rather than Polymyositis, which typically presents with symmetrical weakness.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes (e.g., creatine kinase)</t>
+          <t>Symmetrical muscle weakness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elevated levels of muscle enzymes are indicative of muscle damage and are commonly found in Polymyositis.</t>
+          <t>Symmetrical muscle weakness is characteristic of Polymyositis, distinguishing it from other conditions that may cause asymmetrical weakness.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal neurological examination</t>
+          <t>Absence of muscle tenderness</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal neurological exam suggests that there is no underlying neurological condition contributing to muscle weakness, which would be atypical in Polymyositis.</t>
+          <t>The absence of muscle tenderness may argue against Polymyositis, where muscle inflammation often causes tenderness.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Skin rash (e.g., heliotrope rash)</t>
+          <t>Difficulty rising from a seated position</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A heliotrope rash can accompany Polymyositis, providing a specific dermatological sign associated with the condition.</t>
+          <t>This difficulty is indicative of proximal muscle weakness, a key feature of Polymyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No systemic symptoms (e.g., fever, weight loss)</t>
+          <t>Normal gait</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of systemic symptoms can indicate that there is no inflammatory process, which is often present in Polymyositis.</t>
+          <t>A normal gait is inconsistent with the muscle weakness and potential gait disturbances seen in Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Difficulty with fine motor skills</t>
+          <t>Gait disturbance</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients may exhibit difficulty with fine motor skills due to proximal muscle involvement, which is characteristic of Polymyositis.</t>
+          <t>Gait disturbance can result from muscle weakness and is often seen in Polymyositis patients.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal laboratory tests for autoimmune markers</t>
+          <t>No difficulty with activities of daily living</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal results for autoimmune markers suggest that there is no autoimmune process at play, which is a key feature of Polymyositis.</t>
+          <t>Patients with Polymyositis often struggle with activities of daily living due to muscle weakness, so no difficulty suggests another diagnosis.</t>
         </is>
       </c>
     </row>
@@ -1066,22 +1066,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase (CK) levels</t>
+          <t>Elevated serum creatine kinase (CK)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elevated CK levels are commonly found in patients with Polymyositis due to muscle damage, making it a strong indicator of the disease.</t>
+          <t>Elevated CK is a common finding in Polymyositis due to muscle inflammation and damage.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal electromyography (EMG) results</t>
+          <t>Normal serum creatine kinase (CK)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal EMG findings suggest that there is no significant muscle electrical activity disturbance, which is inconsistent with Polymyositis.</t>
+          <t>A normal CK level is uncommon in active Polymyositis, suggesting the absence of muscle inflammation.</t>
         </is>
       </c>
     </row>
@@ -1093,61 +1093,61 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of anti-Jo-1 antibodies is associated with Polymyositis and indicates an autoimmune process affecting muscle tissue.</t>
+          <t>Anti-Jo-1 antibodies are specific to Polymyositis and dermatomyositis, indicating an autoimmune process.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative anti-SRP antibodies</t>
+          <t>Negative anti-Jo-1 antibodies</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of anti-SRP antibodies, which are associated with certain myopathies, suggests that Polymyositis is less likely.</t>
+          <t>The absence of anti-Jo-1 antibodies reduces the likelihood of Polymyositis, as these are often present in the condition.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Muscle biopsy showing inflammatory infiltrates</t>
+          <t>Muscle biopsy showing endomysial inflammation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A muscle biopsy revealing inflammatory infiltrates is a definitive diagnostic criterion for Polymyositis.</t>
+          <t>Muscle biopsy with endomysial inflammation is a hallmark of Polymyositis, showing direct muscle fiber damage.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal muscle strength</t>
+          <t>Muscle biopsy showing no inflammation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal muscle strength in the presence of symptoms would argue against Polymyositis, as muscle weakness is a hallmark of the disease.</t>
+          <t>A muscle biopsy without inflammation is strong evidence against Polymyositis, which is characterized by muscle inflammation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated aldolase levels</t>
+          <t>Electromyography (EMG) showing myopathic changes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aldolase is another enzyme that can be elevated in muscle damage, supporting the diagnosis of Polymyositis.</t>
+          <t>EMG findings of myopathic changes are indicative of muscle disease such as Polymyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative muscle biopsy for necrosis</t>
+          <t>Electromyography (EMG) showing normal results</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A muscle biopsy that does not show necrosis or inflammation would be inconsistent with a diagnosis of Polymyositis.</t>
+          <t>Normal EMG results suggest the absence of myopathic changes, which are expected in Polymyositis.</t>
         </is>
       </c>
     </row>
@@ -1159,17 +1159,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MRI findings of muscle edema are indicative of inflammation and are consistent with Polymyositis.</t>
+          <t>MRI can reveal muscle edema, which is consistent with the inflammation seen in Polymyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal liver function tests</t>
+          <t>MRI showing no muscle edema</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal liver function tests can indicate that there is no associated myopathy affecting liver enzymes, which can sometimes be seen in inflammatory myopathies.</t>
+          <t>The absence of muscle edema on MRI is inconsistent with the inflammatory process of Polymyositis.</t>
         </is>
       </c>
     </row>
